--- a/PrivateOA.Files/表结构设计.xlsx
+++ b/PrivateOA.Files/表结构设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Yuanfei\PrivateOA\PrivateOA\PrivateOA.Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="加班记录表" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,12 +367,24 @@
     <t>操作用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ExistHours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余调休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +475,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -504,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,9 +561,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,6 +596,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -745,20 +772,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -772,7 +799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -784,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -796,7 +823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -808,7 +835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -820,7 +847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -832,7 +859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -844,7 +871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -856,7 +883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -870,7 +897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -882,7 +909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -901,20 +928,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -928,7 +955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -940,7 +967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,7 +979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -964,7 +991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -976,7 +1003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -988,7 +1015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1000,7 +1027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1012,7 +1039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1026,7 +1053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1038,7 +1065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1057,20 +1084,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -1096,7 +1123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1120,7 +1147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1132,7 +1159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1144,7 +1171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1158,7 +1185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1170,7 +1197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1189,14 +1216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
@@ -1204,7 +1231,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +1299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1284,7 +1311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1298,7 +1325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
@@ -1310,41 +1337,53 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>500</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1356,19 +1395,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
@@ -1394,7 +1433,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
@@ -1406,7 +1445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1420,7 +1459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -1432,7 +1471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -1446,7 +1485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
@@ -1458,7 +1497,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
